--- a/data/IAM_SignInESRI_TC01.xlsx
+++ b/data/IAM_SignInESRI_TC01.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESRI_Automation\ESRI_IAM\Stable_Auto_POM_Framework_1\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="3105" tabRatio="141"/>
   </bookViews>
@@ -10,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -42,22 +46,21 @@
   </si>
   <si>
     <t>Test Esri2</t>
+  </si>
+  <si>
+    <t>https://accounts-stg.esri.com/</t>
+  </si>
+  <si>
+    <t>ESRIActStgURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -83,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,58 +405,63 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="14.140625"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="14.140625"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
